--- a/data/full_data/ice clear netherlands.xlsx
+++ b/data/full_data/ice clear netherlands.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>CCP</t>
   </si>
@@ -146,6 +146,9 @@
   <si>
     <t>See ICNL Rulebook - Rules 908 and 909 
 https://www.theice.com/publicdocs/ICNL_Clearing_Rules.pdf</t>
+  </si>
+  <si>
+    <t>Q4-2015</t>
   </si>
   <si>
     <t>Q2-2016</t>
@@ -497,7 +500,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:AC12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1367,10 +1370,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>67950000</v>
+        <v>117350000</v>
       </c>
       <c r="I11" t="n">
-        <v>77351663</v>
+        <v>128483160</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1379,7 +1382,7 @@
         <v>20000000</v>
       </c>
       <c r="L11" t="n">
-        <v>135900000</v>
+        <v>234700000</v>
       </c>
       <c r="M11" t="s">
         <v>31</v>
@@ -1391,20 +1394,16 @@
         <v>52348239</v>
       </c>
       <c r="P11" t="n">
-        <v>11342987</v>
+        <v>11618929</v>
       </c>
       <c r="Q11" t="n">
-        <v>157340207</v>
+        <v>209466189</v>
       </c>
       <c r="R11" t="n">
-        <v>171675936</v>
-      </c>
-      <c r="S11" t="n">
-        <v>367286645</v>
-      </c>
-      <c r="T11" t="n">
-        <v>367286645</v>
-      </c>
+        <v>223794196</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
       <c r="U11" t="n">
         <v>2</v>
       </c>
@@ -1414,20 +1413,109 @@
       <c r="W11" t="n">
         <v>0</v>
       </c>
-      <c r="X11" t="s"/>
+      <c r="X11" t="s">
+        <v>37</v>
+      </c>
       <c r="Y11" t="n">
         <v>1</v>
       </c>
       <c r="Z11" t="n">
+        <v>41458037</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>419370241</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1875000</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>67950000</v>
+      </c>
+      <c r="I12" t="n">
+        <v>77351663</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>135900000</v>
+      </c>
+      <c r="M12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>52348239</v>
+      </c>
+      <c r="P12" t="n">
+        <v>11342987</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>157340207</v>
+      </c>
+      <c r="R12" t="n">
+        <v>171675936</v>
+      </c>
+      <c r="S12" t="n">
+        <v>367286645</v>
+      </c>
+      <c r="T12" t="n">
+        <v>367286645</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z12" t="n">
         <v>18866307</v>
       </c>
-      <c r="AA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="n">
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
         <v>442789056</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AC12" t="n">
         <v>0</v>
       </c>
     </row>
